--- a/biology/Botanique/Cinnamomum_aromaticum/Cinnamomum_aromaticum.xlsx
+++ b/biology/Botanique/Cinnamomum_aromaticum/Cinnamomum_aromaticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinnamomum cassia
 Le cannelier de Chine (Cinnamomum cassia) est une espèce d'arbres de la famille des Lauraceae, originaire de Chine. Il est aussi nommé casse, cannelier casse, cassia, cannelle de Cochinchine, fausse cannelle.
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout comme le cannelier de Ceylan (Cinnamomum verum), cet arbre possède une écorce aromatique riche en huile essentielle. Cette épice, la casse, est aussi vendue sous le nom de cannelle de Chine. Celle-ci est utilisée en cuisine comme condiment. L'huile de cannelle de Chine est également utilisée en parfumerie et en aromathérapie. Plus piquante, moins coûteuse, elle est très répandue sur le marché américain[réf. nécessaire].
 Il est très utilisé en médecine Kampo.
@@ -544,7 +558,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cinnamomum aromaticum Nees</t>
         </is>
